--- a/biology/Médecine/Anencéphale_de_Vichy/Anencéphale_de_Vichy.xlsx
+++ b/biology/Médecine/Anencéphale_de_Vichy/Anencéphale_de_Vichy.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Anenc%C3%A9phale_de_Vichy</t>
+          <t>Anencéphale_de_Vichy</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L'anencéphale de Vichy est un enfant anencéphale mort-né le 6 janvier 1897 à la maternité de l’hôpital civil de Vichy.
-Il a fait l'objet d'une curieuse brochure publiée en 1943 par le docteur Jean-Antoine-Mary (dit Aimé) Therre, médecin de cette maternité en 1897, qui émet l'hypothèse que ce « monstre » pourrait être issu de l'accouplement d'une humaine et d'un singe anthropoïde appartenant à une autre espèce[1]. En réalité, la description et les photographies contenues dans la brochure sont cohérentes avec les autres cas documentés d'humains anencéphales.
+Il a fait l'objet d'une curieuse brochure publiée en 1943 par le docteur Jean-Antoine-Mary (dit Aimé) Therre, médecin de cette maternité en 1897, qui émet l'hypothèse que ce « monstre » pourrait être issu de l'accouplement d'une humaine et d'un singe anthropoïde appartenant à une autre espèce. En réalité, la description et les photographies contenues dans la brochure sont cohérentes avec les autres cas documentés d'humains anencéphales.
 </t>
         </is>
       </c>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Anenc%C3%A9phale_de_Vichy</t>
+          <t>Anencéphale_de_Vichy</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,9 +524,11 @@
           <t>Pathologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Décrivant l'enfant, Therre recense une dizaine d'anomalies, dont l'anencéphalie, et le décrit comme ayant un « aspect franchement simiesque surtout par ses membres démesurément longs. »[2]
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Décrivant l'enfant, Therre recense une dizaine d'anomalies, dont l'anencéphalie, et le décrit comme ayant un « aspect franchement simiesque surtout par ses membres démesurément longs. »
 </t>
         </is>
       </c>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Anenc%C3%A9phale_de_Vichy</t>
+          <t>Anencéphale_de_Vichy</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,9 +557,11 @@
           <t>Conception</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La mère de l'enfant, âgée de 16 ans, vivait dans une roulotte avec son père et un singe « anthropoïde d'Afrique », dont Therre ne précise pas l'espèce[1]. De « vagues rumeurs de voisinage » suggéraient des relations incestueuses entre la jeune fille et son père. Toutefois, selon Therre, l'étroitesse de l'orifice vaginal, observée par une sage-femme, semble démontrer qu'il n'y aurait pas eu de relation sexuelle entre l'adolescente et son père[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La mère de l'enfant, âgée de 16 ans, vivait dans une roulotte avec son père et un singe « anthropoïde d'Afrique », dont Therre ne précise pas l'espèce. De « vagues rumeurs de voisinage » suggéraient des relations incestueuses entre la jeune fille et son père. Toutefois, selon Therre, l'étroitesse de l'orifice vaginal, observée par une sage-femme, semble démontrer qu'il n'y aurait pas eu de relation sexuelle entre l'adolescente et son père.
 </t>
         </is>
       </c>
@@ -556,7 +572,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Anenc%C3%A9phale_de_Vichy</t>
+          <t>Anencéphale_de_Vichy</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -574,9 +590,11 @@
           <t>Identité</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La naissance et la mort de l'enfant, absentes des registres de l'état civil de Vichy, ne semblent documentées que par la brochure du docteur Therre, qui a conservé le corps afin de l'étudier. La mère de l'enfant y est mentionnée comme une certaine « M. B. [...] née à Grenoble le 6 [sic] avril 1880, fille de L. B. et de A. B. L ». Ces initiales permettent d'identifier la mère à Marie Brunet, née à Grenoble le 8 avril 1880, fille de Luc-Sénèque Brunet, opticien ambulant puis marchand, et de Marie-Amélie Brelliet-Laverdure, couturière puis marchande[4],[5].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La naissance et la mort de l'enfant, absentes des registres de l'état civil de Vichy, ne semblent documentées que par la brochure du docteur Therre, qui a conservé le corps afin de l'étudier. La mère de l'enfant y est mentionnée comme une certaine « M. B. [...] née à Grenoble le 6 [sic] avril 1880, fille de L. B. et de A. B. L ». Ces initiales permettent d'identifier la mère à Marie Brunet, née à Grenoble le 8 avril 1880, fille de Luc-Sénèque Brunet, opticien ambulant puis marchand, et de Marie-Amélie Brelliet-Laverdure, couturière puis marchande,.
 </t>
         </is>
       </c>
